--- a/IQC Monitoring/IQC_defect_table_update.xlsx
+++ b/IQC Monitoring/IQC_defect_table_update.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="18900" windowWidth="0" windowHeight="0" tabRatio="564"/>
+    <workbookView xWindow="6720" yWindow="18900" windowWidth="0" windowHeight="0" tabRatio="564"/>
   </bookViews>
   <sheets>
     <sheet name="IQC Issue Reporting" sheetId="1" r:id="rId1"/>
@@ -7463,8 +7463,8 @@
   <dimension ref="A1:S1284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O64" sqref="O64"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="33" customHeight="1"/>
@@ -10566,7 +10566,7 @@
         <v>5197</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="Q57" s="4" t="s">
         <v>920</v>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="33" customHeight="1">
+    <row r="60" spans="1:19" ht="33" hidden="1" customHeight="1">
       <c r="A60" s="2">
         <v>42560</v>
       </c>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="33" customHeight="1">
+    <row r="61" spans="1:19" ht="33" hidden="1" customHeight="1">
       <c r="A61" s="2">
         <v>42560</v>
       </c>
@@ -80980,7 +80980,7 @@
       </c>
       <c r="D1280" s="1">
         <f>SUBTOTAL(103,Table1[Part number])</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1280" s="1">
         <f>COUNTIF(Table1[NCN],"NCN*")</f>
@@ -80993,7 +80993,7 @@
       <c r="N1280" s="1"/>
       <c r="P1280" s="4">
         <f>SUBTOTAL(103,Table1[Status2])</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S1280" s="1"/>
     </row>
